--- a/data/trans_camb/P19C04-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,04</t>
+          <t>-4,25; 5,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 1,06</t>
+          <t>-8,36; 0,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -0,11</t>
+          <t>-9,01; -0,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 9,36</t>
+          <t>-1,56; 8,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,4</t>
+          <t>-4,02; 5,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 0,67</t>
+          <t>-6,22; 0,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,53</t>
+          <t>-1,72; 5,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 1,21</t>
+          <t>-5,35; 1,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,03</t>
+          <t>-6,85; -0,78</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 56,44</t>
+          <t>-27,23; 54,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,31; 10,77</t>
+          <t>-55,52; 6,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,87; -0,87</t>
+          <t>-57,53; -4,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 193,93</t>
+          <t>-19,74; 183,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 108,5</t>
+          <t>-43,46; 108,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,85; 16,66</t>
+          <t>-62,33; 19,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 64,2</t>
+          <t>-14,62; 61,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,22; 14,44</t>
+          <t>-42,66; 13,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-54,35; -12,96</t>
+          <t>-52,97; -7,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 4,77</t>
+          <t>-6,6; 5,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 2,57</t>
+          <t>-8,96; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -0,32</t>
+          <t>-10,4; -0,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 7,98</t>
+          <t>-1,53; 7,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 2,73</t>
+          <t>-6,08; 2,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 1,57</t>
+          <t>-5,75; 1,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 5,17</t>
+          <t>-2,08; 5,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 1,49</t>
+          <t>-5,48; 1,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 0,08</t>
+          <t>-6,35; -0,26</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 39,85</t>
+          <t>-34,96; 39,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,74; 21,3</t>
+          <t>-47,61; 23,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,65; 0,05</t>
+          <t>-55,59; -1,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 149,66</t>
+          <t>-19,37; 140,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,45; 58,54</t>
+          <t>-59,11; 54,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,76; 31,29</t>
+          <t>-56,95; 37,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 53,43</t>
+          <t>-15,93; 61,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 16,52</t>
+          <t>-41,06; 18,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 1,35</t>
+          <t>-46,65; -1,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 10,27</t>
+          <t>-0,57; 10,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 1,88</t>
+          <t>-8,72; 2,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,29; -4,93</t>
+          <t>-20,19; -4,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 3,98</t>
+          <t>-10,27; 3,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 10,7</t>
+          <t>-6,22; 11,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 2,72</t>
+          <t>-9,96; 3,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,32</t>
+          <t>-2,33; 6,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 2,42</t>
+          <t>-6,56; 3,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,61; -4,76</t>
+          <t>-16,58; -4,26</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 54,3</t>
+          <t>-2,8; 53,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 10,29</t>
+          <t>-35,75; 11,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,02; -24,22</t>
+          <t>-84,4; -22,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 40,14</t>
+          <t>-54,78; 42,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,36; 109,84</t>
+          <t>-37,37; 114,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,78; 31,49</t>
+          <t>-54,4; 48,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 38,37</t>
+          <t>-10,25; 39,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 13,95</t>
+          <t>-30,0; 18,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,39; -24,57</t>
+          <t>-76,79; -23,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,58</t>
+          <t>2,97; 11,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -0,27</t>
+          <t>-8,48; 0,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -2,9</t>
+          <t>-11,01; -3,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,82</t>
+          <t>-4,98; 3,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,93</t>
+          <t>-7,43; 0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -3,65</t>
+          <t>-13,75; -3,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,05</t>
+          <t>0,68; 7,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; -1,29</t>
+          <t>-7,01; -1,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -4,96</t>
+          <t>-12,36; -5,35</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,38; 49,29</t>
+          <t>10,66; 50,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,99; -1,02</t>
+          <t>-30,88; 1,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,87; -12,55</t>
+          <t>-40,4; -13,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,0; 27,61</t>
+          <t>-27,36; 27,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 7,04</t>
+          <t>-41,2; 3,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,66; -25,72</t>
+          <t>-73,34; -26,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,3; 35,13</t>
+          <t>2,84; 35,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,74; -6,32</t>
+          <t>-30,85; -6,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,82; -24,7</t>
+          <t>-56,23; -26,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,68; 15,75</t>
+          <t>1,71; 15,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 9,87</t>
+          <t>-3,97; 10,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 9,74</t>
+          <t>-4,21; 9,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,12</t>
+          <t>-1,19; 8,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 1,15</t>
+          <t>-9,48; 0,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 0,65</t>
+          <t>-9,9; 0,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,63; 10,16</t>
+          <t>2,02; 10,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,01</t>
+          <t>-4,58; 3,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,57</t>
+          <t>-6,37; 2,03</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,26; 76,58</t>
+          <t>6,35; 79,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 47,63</t>
+          <t>-13,38; 51,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 47,0</t>
+          <t>-15,53; 46,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 54,08</t>
+          <t>-4,56; 52,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 6,07</t>
+          <t>-41,09; 4,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 3,18</t>
+          <t>-43,6; 1,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,69; 53,76</t>
+          <t>8,52; 55,31</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 15,5</t>
+          <t>-19,43; 17,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 12,87</t>
+          <t>-26,55; 9,82</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,36</t>
+          <t>-6,17; 5,4</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 4,41</t>
+          <t>-5,76; 5,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 5,33</t>
+          <t>-8,98; 4,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,03</t>
+          <t>0,63; 8,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,89</t>
+          <t>-3,57; 3,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,35; -0,06</t>
+          <t>-5,85; 0,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,53</t>
+          <t>0,54; 6,78</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,88</t>
+          <t>-3,24; 2,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,1; -0,41</t>
+          <t>-6,3; -0,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 83,91</t>
+          <t>-47,94; 81,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-51,74; 62,56</t>
+          <t>-44,13; 83,79</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,77; 82,94</t>
+          <t>-71,2; 80,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,16; 54,47</t>
+          <t>3,75; 56,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 26,27</t>
+          <t>-19,83; 26,19</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,73; -0,12</t>
+          <t>-33,8; 0,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,92; 49,22</t>
+          <t>2,13; 49,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 20,49</t>
+          <t>-20,21; 19,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,97; -2,27</t>
+          <t>-37,88; -2,31</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,89</t>
+          <t>2,6; 7,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,15</t>
+          <t>-4,22; 0,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -3,43</t>
+          <t>-9,57; -3,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,8</t>
+          <t>0,87; 5,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,47</t>
+          <t>-3,35; 0,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,47; -2,51</t>
+          <t>-6,62; -2,52</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,31</t>
+          <t>2,17; 5,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,33</t>
+          <t>-3,25; -0,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -3,19</t>
+          <t>-6,54; -3,24</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>10,76; 36,7</t>
+          <t>12,39; 38,68</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 0,6</t>
+          <t>-20,27; 1,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,57; -18,48</t>
+          <t>-47,31; -18,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,6; 34,82</t>
+          <t>5,47; 36,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 3,35</t>
+          <t>-21,79; 1,29</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-41,97; -17,98</t>
+          <t>-42,52; -18,26</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>12,95; 32,46</t>
+          <t>12,22; 33,22</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -1,97</t>
+          <t>-18,01; -1,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-37,96; -19,17</t>
+          <t>-37,25; -19,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C04-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
